--- a/datamining/modi_data/deldata.xlsx
+++ b/datamining/modi_data/deldata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
   <si>
     <t>연번</t>
   </si>
@@ -25,12 +25,18 @@
     <t>삭제</t>
   </si>
   <si>
+    <t>기반</t>
+  </si>
+  <si>
     <t>이제</t>
   </si>
   <si>
     <t>이언</t>
   </si>
   <si>
+    <t>때문</t>
+  </si>
+  <si>
     <t>타이</t>
   </si>
   <si>
@@ -43,18 +49,36 @@
     <t>메타데</t>
   </si>
   <si>
+    <t>도달</t>
+  </si>
+  <si>
     <t>.본</t>
   </si>
   <si>
+    <t>어디</t>
+  </si>
+  <si>
     <t>보털</t>
   </si>
   <si>
     <t>이것</t>
   </si>
   <si>
+    <t>바탕</t>
+  </si>
+  <si>
     <t>퀴즈실</t>
   </si>
   <si>
+    <t>야기</t>
+  </si>
+  <si>
+    <t>그것</t>
+  </si>
+  <si>
+    <t>마련</t>
+  </si>
+  <si>
     <t>스키</t>
   </si>
   <si>
@@ -64,6 +88,9 @@
     <t>커뮤니티운영취지</t>
   </si>
   <si>
+    <t>일치</t>
+  </si>
+  <si>
     <t>한편</t>
   </si>
   <si>
@@ -73,6 +100,9 @@
     <t>유비</t>
   </si>
   <si>
+    <t>둘째</t>
+  </si>
+  <si>
     <t>첫째</t>
   </si>
   <si>
@@ -91,12 +121,21 @@
     <t>학인</t>
   </si>
   <si>
+    <t>오늘날</t>
+  </si>
+  <si>
     <t>•외</t>
   </si>
   <si>
+    <t>우려</t>
+  </si>
+  <si>
     <t>먼트</t>
   </si>
   <si>
+    <t>마지막</t>
+  </si>
+  <si>
     <t>바타</t>
   </si>
   <si>
@@ -115,6 +154,9 @@
     <t>버로</t>
   </si>
   <si>
+    <t>만큼</t>
+  </si>
+  <si>
     <t>여부</t>
   </si>
   <si>
@@ -166,6 +208,9 @@
     <t>트래픽</t>
   </si>
   <si>
+    <t>미도</t>
+  </si>
+  <si>
     <t>커스</t>
   </si>
   <si>
@@ -187,12 +232,24 @@
     <t>리커</t>
   </si>
   <si>
+    <t>그동안</t>
+  </si>
+  <si>
+    <t>스마</t>
+  </si>
+  <si>
+    <t>이하</t>
+  </si>
+  <si>
     <t>로이</t>
   </si>
   <si>
     <t>피소</t>
   </si>
   <si>
+    <t>마찬가지</t>
+  </si>
+  <si>
     <t>이법</t>
   </si>
   <si>
@@ -211,6 +268,9 @@
     <t>육진</t>
   </si>
   <si>
+    <t>의거</t>
+  </si>
+  <si>
     <t>잉킹</t>
   </si>
   <si>
@@ -301,6 +361,9 @@
     <t>그인</t>
   </si>
   <si>
+    <t>이내</t>
+  </si>
+  <si>
     <t>커짐</t>
   </si>
   <si>
@@ -331,6 +394,9 @@
     <t>추세츠</t>
   </si>
   <si>
+    <t>왜곡</t>
+  </si>
+  <si>
     <t>릴리</t>
   </si>
   <si>
@@ -355,6 +421,12 @@
     <t>이때</t>
   </si>
   <si>
+    <t>그간</t>
+  </si>
+  <si>
+    <t>그대</t>
+  </si>
+  <si>
     <t>등학생</t>
   </si>
   <si>
@@ -385,6 +457,9 @@
     <t>라이</t>
   </si>
   <si>
+    <t>린지</t>
+  </si>
+  <si>
     <t>러닝라</t>
   </si>
   <si>
@@ -394,6 +469,9 @@
     <t>능계열</t>
   </si>
   <si>
+    <t>이노</t>
+  </si>
+  <si>
     <t>자넷</t>
   </si>
   <si>
@@ -404,6 +482,9 @@
   </si>
   <si>
     <t>‧고</t>
+  </si>
+  <si>
+    <t>비약</t>
   </si>
   <si>
     <t>식ㅈ[</t>
@@ -767,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,7 +867,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -797,7 +878,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -808,7 +889,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -819,7 +900,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -830,7 +911,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -841,7 +922,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -852,7 +933,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>362</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -863,7 +944,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>425</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -874,7 +955,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>496</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -885,7 +966,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>564</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -896,7 +977,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>684</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -907,7 +988,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>699</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -918,7 +999,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>771</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -929,7 +1010,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>869</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -940,7 +1021,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>870</v>
+        <v>571</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -951,7 +1032,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>884</v>
+        <v>602</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -962,7 +1043,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -973,7 +1054,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>991</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -984,18 +1065,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1002</v>
+        <v>696</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1067</v>
+        <v>711</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1006,7 +1087,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1125</v>
+        <v>784</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1017,18 +1098,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1154</v>
+        <v>849</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1200</v>
+        <v>883</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1039,7 +1120,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1323</v>
+        <v>884</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1050,7 +1131,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1357</v>
+        <v>898</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1061,7 +1142,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1408</v>
+        <v>998</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1072,7 +1153,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1417</v>
+        <v>1005</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1083,7 +1164,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1418</v>
+        <v>1008</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1094,18 +1175,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1513</v>
+        <v>1019</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1525</v>
+        <v>1084</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1116,7 +1197,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1548</v>
+        <v>1143</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1127,18 +1208,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1581</v>
+        <v>1172</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1600</v>
+        <v>1197</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1149,7 +1230,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1646</v>
+        <v>1219</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1160,7 +1241,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1653</v>
+        <v>1312</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1171,7 +1252,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1680</v>
+        <v>1344</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1182,7 +1263,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1707</v>
+        <v>1369</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1193,7 +1274,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1715</v>
+        <v>1379</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1204,7 +1285,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1716</v>
+        <v>1431</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1215,7 +1296,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1804</v>
+        <v>1440</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1226,7 +1307,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1819</v>
+        <v>1441</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1237,7 +1318,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1836</v>
+        <v>1537</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1248,7 +1329,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1874</v>
+        <v>1549</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1259,7 +1340,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1941</v>
+        <v>1567</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1270,7 +1351,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1942</v>
+        <v>1575</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1281,7 +1362,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2030</v>
+        <v>1608</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1292,7 +1373,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2077</v>
+        <v>1627</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1303,7 +1384,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2107</v>
+        <v>1675</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1314,7 +1395,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2128</v>
+        <v>1682</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1325,7 +1406,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2146</v>
+        <v>1710</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1336,7 +1417,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2197</v>
+        <v>1738</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1347,7 +1428,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2222</v>
+        <v>1746</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1358,7 +1439,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2232</v>
+        <v>1747</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1369,7 +1450,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2243</v>
+        <v>1837</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1380,7 +1461,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2362</v>
+        <v>1852</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1391,7 +1472,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2424</v>
+        <v>1869</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1402,7 +1483,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2445</v>
+        <v>1907</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1413,7 +1494,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2519</v>
+        <v>1974</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1424,7 +1505,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2629</v>
+        <v>1975</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1435,7 +1516,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2636</v>
+        <v>2063</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1446,7 +1527,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2667</v>
+        <v>2110</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1457,7 +1538,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2669</v>
+        <v>2137</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1468,7 +1549,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2681</v>
+        <v>2141</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1479,7 +1560,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2715</v>
+        <v>2163</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1490,7 +1571,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2717</v>
+        <v>2181</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1501,7 +1582,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2718</v>
+        <v>2232</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1512,7 +1593,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2738</v>
+        <v>2257</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1523,7 +1604,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2744</v>
+        <v>2267</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1534,7 +1615,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2767</v>
+        <v>2278</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1545,7 +1626,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2775</v>
+        <v>2342</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1556,7 +1637,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2790</v>
+        <v>2364</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1567,7 +1648,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2859</v>
+        <v>2389</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1578,7 +1659,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2912</v>
+        <v>2399</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1589,7 +1670,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2938</v>
+        <v>2462</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1600,7 +1681,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2950</v>
+        <v>2472</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1611,7 +1692,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2962</v>
+        <v>2484</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1622,7 +1703,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2991</v>
+        <v>2559</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1633,7 +1714,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2998</v>
+        <v>2670</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1644,7 +1725,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>3032</v>
+        <v>2677</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1655,7 +1736,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3039</v>
+        <v>2708</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1666,7 +1747,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>3040</v>
+        <v>2710</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1677,7 +1758,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>3042</v>
+        <v>2718</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1688,7 +1769,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>3063</v>
+        <v>2723</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1699,7 +1780,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>3064</v>
+        <v>2758</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1710,7 +1791,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3080</v>
+        <v>2760</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1721,7 +1802,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>3104</v>
+        <v>2761</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1732,7 +1813,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>3112</v>
+        <v>2781</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1743,7 +1824,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3134</v>
+        <v>2787</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1754,7 +1835,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>3162</v>
+        <v>2810</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1765,7 +1846,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>3169</v>
+        <v>2818</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1776,7 +1857,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>3215</v>
+        <v>2833</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -1787,7 +1868,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3245</v>
+        <v>2904</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -1798,7 +1879,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>3298</v>
+        <v>2959</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -1809,7 +1890,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>3340</v>
+        <v>2985</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -1820,7 +1901,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>3382</v>
+        <v>2997</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -1831,7 +1912,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3387</v>
+        <v>3009</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -1842,7 +1923,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3428</v>
+        <v>3038</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -1853,7 +1934,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3451</v>
+        <v>3045</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -1864,7 +1945,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3454</v>
+        <v>3079</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -1875,7 +1956,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>3634</v>
+        <v>3086</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -1886,7 +1967,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>3678</v>
+        <v>3087</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -1897,7 +1978,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>3683</v>
+        <v>3089</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -1908,7 +1989,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3738</v>
+        <v>3110</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -1919,7 +2000,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3772</v>
+        <v>3111</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
@@ -1930,7 +2011,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3779</v>
+        <v>3127</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -1941,7 +2022,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3830</v>
+        <v>3151</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -1952,7 +2033,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3837</v>
+        <v>3159</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -1963,7 +2044,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3843</v>
+        <v>3181</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -1974,7 +2055,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3853</v>
+        <v>3209</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -1985,7 +2066,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3898</v>
+        <v>3216</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -1996,7 +2077,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3942</v>
+        <v>3262</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -2007,7 +2088,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3978</v>
+        <v>3292</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -2018,7 +2099,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3981</v>
+        <v>3339</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -2029,7 +2110,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3983</v>
+        <v>3346</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -2040,7 +2121,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>4071</v>
+        <v>3388</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -2051,7 +2132,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>4096</v>
+        <v>3430</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -2062,7 +2143,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>4160</v>
+        <v>3435</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -2073,7 +2154,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>4178</v>
+        <v>3476</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -2084,7 +2165,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>4201</v>
+        <v>3499</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -2095,7 +2176,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>4219</v>
+        <v>3502</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -2106,7 +2187,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>4240</v>
+        <v>3684</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -2117,7 +2198,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>4275</v>
+        <v>3728</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -2128,7 +2209,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>4294</v>
+        <v>3733</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -2139,7 +2220,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>4381</v>
+        <v>3750</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -2150,7 +2231,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>4421</v>
+        <v>3790</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -2161,7 +2242,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>4466</v>
+        <v>3824</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -2172,12 +2253,309 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>4501</v>
+        <v>3831</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
       <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>3884</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>3891</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>3897</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>3907</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>3954</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>3971</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>3980</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>4000</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>4036</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>4039</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>4041</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>4130</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>4155</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>4219</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>4237</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>4260</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>4278</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>4284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>4300</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>4336</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>4355</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>4385</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>4443</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>4485</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>4531</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>4567</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>4579</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" t="s">
         <v>2</v>
       </c>
     </row>

--- a/datamining/modi_data/deldata.xlsx
+++ b/datamining/modi_data/deldata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="161">
   <si>
     <t>연번</t>
   </si>
@@ -34,6 +34,9 @@
     <t>이언</t>
   </si>
   <si>
+    <t>경우</t>
+  </si>
+  <si>
     <t>때문</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t>한기동안</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>함묵증</t>
@@ -848,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,7 +906,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -911,7 +917,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -922,7 +928,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -933,7 +939,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -944,7 +950,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -955,7 +961,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -966,7 +972,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>366</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -977,7 +983,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -988,7 +994,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -999,7 +1005,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1021,7 +1027,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1032,7 +1038,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1054,7 +1060,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1065,7 +1071,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>696</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -1076,7 +1082,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1087,7 +1093,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>784</v>
+        <v>711</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>849</v>
+        <v>784</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1109,7 +1115,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>883</v>
+        <v>849</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1120,7 +1126,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1131,7 +1137,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1142,7 +1148,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>998</v>
+        <v>898</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -1153,7 +1159,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1164,7 +1170,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1175,29 +1181,29 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1084</v>
+        <v>1019</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1143</v>
+        <v>1084</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1208,29 +1214,29 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1172</v>
+        <v>1143</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1197</v>
+        <v>1172</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1219</v>
+        <v>1197</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1312</v>
+        <v>1219</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1263,7 +1269,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1369</v>
+        <v>1344</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -1285,7 +1291,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1431</v>
+        <v>1379</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -1307,7 +1313,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -1318,7 +1324,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1537</v>
+        <v>1441</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -1329,7 +1335,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1567</v>
+        <v>1549</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -1351,7 +1357,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1608</v>
+        <v>1575</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -1373,7 +1379,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1627</v>
+        <v>1608</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -1384,7 +1390,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1675</v>
+        <v>1627</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1406,7 +1412,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1710</v>
+        <v>1682</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1417,7 +1423,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1738</v>
+        <v>1710</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1837</v>
+        <v>1747</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -1461,7 +1467,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1869</v>
+        <v>1852</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -1483,7 +1489,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1907</v>
+        <v>1869</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1974</v>
+        <v>1907</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -1516,7 +1522,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2063</v>
+        <v>1975</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -1527,7 +1533,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2110</v>
+        <v>2063</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2137</v>
+        <v>2110</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -1549,7 +1555,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>2163</v>
+        <v>2141</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>2181</v>
+        <v>2163</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -1582,7 +1588,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>2232</v>
+        <v>2181</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2257</v>
+        <v>2232</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -1604,7 +1610,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1615,7 +1621,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2278</v>
+        <v>2267</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2342</v>
+        <v>2278</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -1637,7 +1643,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2364</v>
+        <v>2342</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2389</v>
+        <v>2364</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2399</v>
+        <v>2389</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2462</v>
+        <v>2399</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -1681,7 +1687,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2472</v>
+        <v>2462</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -1692,7 +1698,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2484</v>
+        <v>2472</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>2559</v>
+        <v>2484</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>2670</v>
+        <v>2559</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -1725,7 +1731,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2677</v>
+        <v>2670</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -1736,7 +1742,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2708</v>
+        <v>2677</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -1747,7 +1753,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2718</v>
+        <v>2710</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2723</v>
+        <v>2718</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2758</v>
+        <v>2723</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -1791,7 +1797,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2781</v>
+        <v>2761</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -1824,7 +1830,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2787</v>
+        <v>2781</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2810</v>
+        <v>2787</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -1846,7 +1852,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2818</v>
+        <v>2810</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -1857,7 +1863,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2833</v>
+        <v>2818</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -1868,7 +1874,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2904</v>
+        <v>2833</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -1879,7 +1885,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2959</v>
+        <v>2904</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2985</v>
+        <v>2959</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -1901,7 +1907,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2997</v>
+        <v>2985</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>3009</v>
+        <v>2997</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -1923,7 +1929,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3038</v>
+        <v>3009</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3045</v>
+        <v>3038</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3079</v>
+        <v>3045</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -1956,7 +1962,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>3086</v>
+        <v>3079</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -1967,7 +1973,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -1989,7 +1995,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>3110</v>
+        <v>3089</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -2000,7 +2006,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
@@ -2011,7 +2017,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>3127</v>
+        <v>3111</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>3151</v>
+        <v>3127</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -2033,7 +2039,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>3159</v>
+        <v>3151</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>3181</v>
+        <v>3159</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -2055,7 +2061,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>3209</v>
+        <v>3181</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>3216</v>
+        <v>3209</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>3262</v>
+        <v>3216</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>3292</v>
+        <v>3248</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -2099,7 +2105,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>3339</v>
+        <v>3262</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -2110,7 +2116,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>3346</v>
+        <v>3292</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -2121,7 +2127,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>3388</v>
+        <v>3339</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>3430</v>
+        <v>3346</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>3435</v>
+        <v>3388</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>3476</v>
+        <v>3430</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -2165,7 +2171,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>3499</v>
+        <v>3435</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -2176,7 +2182,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>3502</v>
+        <v>3476</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>3684</v>
+        <v>3499</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -2198,7 +2204,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>3728</v>
+        <v>3502</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -2209,7 +2215,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>3733</v>
+        <v>3684</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>3750</v>
+        <v>3728</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>3790</v>
+        <v>3733</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -2242,7 +2248,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>3824</v>
+        <v>3750</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>3831</v>
+        <v>3790</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -2264,7 +2270,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>3884</v>
+        <v>3824</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -2275,7 +2281,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>3891</v>
+        <v>3831</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -2286,7 +2292,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>3897</v>
+        <v>3884</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>3907</v>
+        <v>3891</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -2308,7 +2314,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3954</v>
+        <v>3897</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -2319,7 +2325,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>3971</v>
+        <v>3907</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>3980</v>
+        <v>3954</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -2341,7 +2347,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>4000</v>
+        <v>3971</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -2352,7 +2358,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>4036</v>
+        <v>3980</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>4039</v>
+        <v>4000</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>4041</v>
+        <v>4036</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -2385,7 +2391,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>4130</v>
+        <v>4039</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -2396,7 +2402,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>4155</v>
+        <v>4041</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -2407,7 +2413,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>4219</v>
+        <v>4130</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -2418,7 +2424,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>4237</v>
+        <v>4155</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -2429,7 +2435,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>4260</v>
+        <v>4219</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -2440,7 +2446,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>4278</v>
+        <v>4237</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -2451,7 +2457,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>4284</v>
+        <v>4260</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -2462,7 +2468,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>4300</v>
+        <v>4278</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>4336</v>
+        <v>4284</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -2484,7 +2490,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>4355</v>
+        <v>4300</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -2495,7 +2501,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>4385</v>
+        <v>4336</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>4443</v>
+        <v>4355</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -2517,7 +2523,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>4485</v>
+        <v>4385</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -2528,7 +2534,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>4531</v>
+        <v>4443</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -2539,7 +2545,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>4567</v>
+        <v>4485</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -2550,12 +2556,34 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>4579</v>
+        <v>4531</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>4567</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>4579</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" t="s">
         <v>2</v>
       </c>
     </row>
